--- a/backend/mysite/webapp/algos/MRTHALFB2L1CleanedFloorPlanImage_evaluation.xlsx
+++ b/backend/mysite/webapp/algos/MRTHALFB2L1CleanedFloorPlanImage_evaluation.xlsx
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.448</v>
+        <v>110.589</v>
       </c>
       <c r="C3" t="n">
-        <v>13.326</v>
+        <v>13.288</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139.884</v>
+        <v>136.813</v>
       </c>
       <c r="C4" t="n">
-        <v>11.394</v>
+        <v>11.903</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49.917</v>
+        <v>60.693</v>
       </c>
       <c r="C5" t="n">
-        <v>5.681</v>
+        <v>5.889</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>331.326</v>
+        <v>344.091</v>
       </c>
       <c r="C6" t="n">
-        <v>15.679</v>
+        <v>15.442</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>146.483</v>
+        <v>161.82</v>
       </c>
       <c r="C7" t="n">
-        <v>13.153</v>
+        <v>13.863</v>
       </c>
     </row>
   </sheetData>
